--- a/Data handler/full_model/NaturalGas.xlsx
+++ b/Data handler/full_model/NaturalGas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="103">
   <si>
     <t>Source: European Commission, 2022: Questions and Answers on the new EU rules on gas storage</t>
   </si>
@@ -235,6 +235,60 @@
   </si>
   <si>
     <t>Capacity (ton/hr)</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/international/content/analysis/countries_long/United_Kingdom/pdf/uk.pdf</t>
+  </si>
+  <si>
+    <t>LNG source: All planned and operational import terminals in  Gas Infrastructure Europe LNG Import Terminals Map Database, October 2022, https://www.gie.eu/transparency/databases/lng-database/</t>
+  </si>
+  <si>
+    <t>Pipeline import source: GGM</t>
+  </si>
+  <si>
+    <t>Norwegian Gas Processing Capacity</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Kårstø</t>
+  </si>
+  <si>
+    <t>Kollsnes</t>
+  </si>
+  <si>
+    <t>Nyhamna</t>
+  </si>
+  <si>
+    <t>LNG Import Capacity (kg/hr)</t>
+  </si>
+  <si>
+    <t>Pipeline import capacity (kg/hr)</t>
+  </si>
+  <si>
+    <t>Capacity (mill. Sm^3/day)</t>
+  </si>
+  <si>
+    <t>LNG Import Capacity (Sm^3/hr)</t>
+  </si>
+  <si>
+    <t>Pipeline import capacity (bcma)</t>
+  </si>
+  <si>
+    <t>Capacity (tons/hr)</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://www.equinor.com/no/energi/landanlegg (accessed 20.04.23)</t>
+  </si>
+  <si>
+    <t>https://www.gassco.no/en/our-activities/processing-plants/nyhamna-prosessanlegg (accessed 20.04.23)</t>
+  </si>
+  <si>
+    <t>cubic feet / m^3</t>
   </si>
   <si>
     <t>Source: For Norway: https://www.norskpetroleum.no/fakta/felt/ (accessed 20.04.23). For rest: BP Statistical Review of World Energy 2021 - Natural gas - Total proved reserves. Numbers from at end of 2020.</t>
@@ -2579,7 +2633,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:D235"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2709,13 +2763,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>278</v>
@@ -2729,7 +2783,7 @@
         <v>63</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>278</v>
@@ -2743,7 +2797,7 @@
         <v>63</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>278</v>
@@ -2757,7 +2811,7 @@
         <v>63</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>278</v>
@@ -2771,7 +2825,7 @@
         <v>63</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>278</v>
@@ -2785,7 +2839,7 @@
         <v>63</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>278</v>
@@ -2799,7 +2853,7 @@
         <v>63</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>278</v>
@@ -2807,13 +2861,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>63</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>278</v>
@@ -2821,13 +2875,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>63</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>278</v>
@@ -2841,7 +2895,7 @@
         <v>63</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>278</v>
@@ -2855,7 +2909,7 @@
         <v>63</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>278</v>
@@ -2869,7 +2923,7 @@
         <v>63</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>278</v>
@@ -2883,7 +2937,7 @@
         <v>63</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>278</v>
@@ -2897,7 +2951,7 @@
         <v>63</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>278</v>
@@ -2905,13 +2959,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>63</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>278</v>
@@ -2919,13 +2973,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>278</v>
@@ -2933,13 +2987,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>63</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D27">
         <v>278</v>
@@ -2953,7 +3007,7 @@
         <v>63</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>278</v>
@@ -2967,7 +3021,7 @@
         <v>63</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>278</v>
@@ -2981,7 +3035,7 @@
         <v>63</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <v>278</v>
@@ -2995,7 +3049,7 @@
         <v>63</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>278</v>
@@ -3006,13 +3060,13 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>754.9931561824767</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3020,13 +3074,13 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>793.4308144037444</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3034,13 +3088,13 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>833.67719768805</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3048,13 +3102,13 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>867.6971201174666</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3065,10 +3119,10 @@
         <v>64</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>896.3820035959822</v>
+        <v>754.9931561824767</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3079,10 +3133,10 @@
         <v>64</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>914.3968091726953</v>
+        <v>793.4308144037444</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3093,80 +3147,80 @@
         <v>64</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>927.948576810088</v>
+        <v>833.67719768805</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>754.9931561824767</v>
+        <v>867.6971201174666</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
         <v>64</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>793.4308144037444</v>
+        <v>896.3820035959822</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
         <v>64</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>833.67719768805</v>
+        <v>914.3968091726953</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
         <v>64</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D42">
-        <v>867.6971201174666</v>
+        <v>927.948576810088</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
         <v>64</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>896.3820035959822</v>
+        <v>939.2688254778204</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3177,10 +3231,10 @@
         <v>64</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>914.3968091726953</v>
+        <v>754.9931561824767</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3191,10 +3245,10 @@
         <v>64</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>927.948576810088</v>
+        <v>793.4308144037444</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3202,13 +3256,13 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>278</v>
+        <v>833.67719768805</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3216,13 +3270,13 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>278</v>
+        <v>867.6971201174666</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3230,13 +3284,13 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>278</v>
+        <v>896.3820035959822</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3244,13 +3298,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>278</v>
+        <v>914.3968091726953</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3258,13 +3312,13 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D50">
-        <v>278</v>
+        <v>927.948576810088</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3272,13 +3326,13 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>278</v>
+        <v>939.2688254778204</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3289,7 +3343,7 @@
         <v>65</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>278</v>
@@ -3297,100 +3351,100 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>754.9931561824767</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>793.4308144037444</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55">
-        <v>833.67719768805</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56">
-        <v>867.6971201174666</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>896.3820035959822</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58">
-        <v>914.3968091726953</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59">
-        <v>927.948576810088</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3398,13 +3452,13 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>278</v>
+        <v>754.9931561824767</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3412,13 +3466,13 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61">
-        <v>278</v>
+        <v>793.4308144037444</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3426,13 +3480,13 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>3</v>
       </c>
       <c r="D62">
-        <v>278</v>
+        <v>833.67719768805</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3440,13 +3494,13 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63">
         <v>4</v>
       </c>
       <c r="D63">
-        <v>278</v>
+        <v>867.6971201174666</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3454,13 +3508,13 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64">
         <v>5</v>
       </c>
       <c r="D64">
-        <v>278</v>
+        <v>896.3820035959822</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3468,13 +3522,13 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65">
         <v>6</v>
       </c>
       <c r="D65">
-        <v>278</v>
+        <v>914.3968091726953</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3482,704 +3536,704 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66">
         <v>7</v>
       </c>
       <c r="D66">
-        <v>278</v>
+        <v>927.948576810088</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
         <v>64</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D67">
-        <v>754.9931561824767</v>
+        <v>939.2688254778204</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>793.4308144037444</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>833.67719768805</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70">
-        <v>867.6971201174666</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71">
         <v>4</v>
       </c>
-      <c r="B71" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71">
-        <v>5</v>
-      </c>
       <c r="D71">
-        <v>896.3820035959822</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>914.3968091726953</v>
+        <v>278</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D73">
-        <v>927.948576810088</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D74">
-        <v>754.9931561824767</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D75">
-        <v>793.4308144037444</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
         <v>64</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>833.67719768805</v>
+        <v>754.9931561824767</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
         <v>64</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>867.6971201174666</v>
+        <v>793.4308144037444</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
         <v>64</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78">
-        <v>896.3820035959822</v>
+        <v>833.67719768805</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
         <v>64</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D79">
-        <v>914.3968091726953</v>
+        <v>867.6971201174666</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B80" t="s">
         <v>64</v>
       </c>
       <c r="C80">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D80">
-        <v>927.948576810088</v>
+        <v>896.3820035959822</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
         <v>64</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D81">
-        <v>754.9931561824767</v>
+        <v>914.3968091726953</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B82" t="s">
         <v>64</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D82">
-        <v>793.4308144037444</v>
+        <v>927.948576810088</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B83" t="s">
         <v>64</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D83">
-        <v>833.67719768805</v>
+        <v>939.2688254778204</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
         <v>64</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>867.6971201174666</v>
+        <v>754.9931561824767</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
         <v>64</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>896.3820035959822</v>
+        <v>793.4308144037444</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
         <v>64</v>
       </c>
       <c r="C86">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D86">
-        <v>914.3968091726953</v>
+        <v>833.67719768805</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
         <v>64</v>
       </c>
       <c r="C87">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D87">
-        <v>927.948576810088</v>
+        <v>867.6971201174666</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
         <v>64</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D88">
-        <v>754.9931561824767</v>
+        <v>896.3820035959822</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
         <v>64</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D89">
-        <v>793.4308144037444</v>
+        <v>914.3968091726953</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
         <v>64</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D90">
-        <v>833.67719768805</v>
+        <v>927.948576810088</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
         <v>64</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D91">
-        <v>867.6971201174666</v>
+        <v>939.2688254778204</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
         <v>64</v>
       </c>
       <c r="C92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>896.3820035959822</v>
+        <v>754.9931561824767</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
         <v>64</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>914.3968091726953</v>
+        <v>793.4308144037444</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
         <v>64</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>927.948576810088</v>
+        <v>833.67719768805</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
         <v>64</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>754.9931561824767</v>
+        <v>867.6971201174666</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
         <v>64</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96">
-        <v>793.4308144037444</v>
+        <v>896.3820035959822</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
         <v>64</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D97">
-        <v>833.67719768805</v>
+        <v>914.3968091726953</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
         <v>64</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D98">
-        <v>867.6971201174666</v>
+        <v>927.948576810088</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
         <v>64</v>
       </c>
       <c r="C99">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D99">
-        <v>896.3820035959822</v>
+        <v>939.2688254778204</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B100" t="s">
         <v>64</v>
       </c>
       <c r="C100">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>914.3968091726953</v>
+        <v>754.9931561824767</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B101" t="s">
         <v>64</v>
       </c>
       <c r="C101">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>927.948576810088</v>
+        <v>793.4308144037444</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B102" t="s">
         <v>64</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D102">
-        <v>754.9931561824767</v>
+        <v>833.67719768805</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B103" t="s">
         <v>64</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D103">
-        <v>793.4308144037444</v>
+        <v>867.6971201174666</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B104" t="s">
         <v>64</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D104">
-        <v>833.67719768805</v>
+        <v>896.3820035959822</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B105" t="s">
         <v>64</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D105">
-        <v>867.6971201174666</v>
+        <v>914.3968091726953</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B106" t="s">
         <v>64</v>
       </c>
       <c r="C106">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D106">
-        <v>896.3820035959822</v>
+        <v>927.948576810088</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B107" t="s">
         <v>64</v>
       </c>
       <c r="C107">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D107">
-        <v>914.3968091726953</v>
+        <v>939.2688254778204</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B108" t="s">
         <v>64</v>
       </c>
       <c r="C108">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>927.948576810088</v>
+        <v>754.9931561824767</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B109" t="s">
         <v>64</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>754.9931561824767</v>
+        <v>793.4308144037444</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B110" t="s">
         <v>64</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D110">
-        <v>793.4308144037444</v>
+        <v>833.67719768805</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B111" t="s">
         <v>64</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D111">
-        <v>833.67719768805</v>
+        <v>867.6971201174666</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B112" t="s">
         <v>64</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D112">
-        <v>867.6971201174666</v>
+        <v>896.3820035959822</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B113" t="s">
         <v>64</v>
       </c>
       <c r="C113">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D113">
-        <v>896.3820035959822</v>
+        <v>914.3968091726953</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B114" t="s">
         <v>64</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D114">
-        <v>914.3968091726953</v>
+        <v>927.948576810088</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B115" t="s">
         <v>64</v>
       </c>
       <c r="C115">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D115">
-        <v>927.948576810088</v>
+        <v>939.2688254778204</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B116" t="s">
         <v>64</v>
@@ -4193,7 +4247,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B117" t="s">
         <v>64</v>
@@ -4207,7 +4261,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B118" t="s">
         <v>64</v>
@@ -4221,7 +4275,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B119" t="s">
         <v>64</v>
@@ -4235,7 +4289,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B120" t="s">
         <v>64</v>
@@ -4249,7 +4303,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B121" t="s">
         <v>64</v>
@@ -4263,7 +4317,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B122" t="s">
         <v>64</v>
@@ -4277,251 +4331,251 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D123">
-        <v>278</v>
+        <v>939.2688254778204</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B124" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>278</v>
+        <v>754.9931561824767</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B125" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>278</v>
+        <v>793.4308144037444</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D126">
-        <v>278</v>
+        <v>833.67719768805</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B127" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C127">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D127">
-        <v>278</v>
+        <v>867.6971201174666</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B128" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C128">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D128">
-        <v>278</v>
+        <v>896.3820035959822</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B129" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C129">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D129">
-        <v>278</v>
+        <v>914.3968091726953</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B130" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D130">
-        <v>278</v>
+        <v>927.948576810088</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B131" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D131">
-        <v>278</v>
+        <v>939.2688254778204</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>278</v>
+        <v>754.9931561824767</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>278</v>
+        <v>793.4308144037444</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C134">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D134">
-        <v>278</v>
+        <v>833.67719768805</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C135">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D135">
-        <v>278</v>
+        <v>867.6971201174666</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C136">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D136">
-        <v>278</v>
+        <v>896.3820035959822</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D137">
-        <v>278</v>
+        <v>914.3968091726953</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D138">
-        <v>278</v>
+        <v>927.948576810088</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D139">
-        <v>278</v>
+        <v>939.2688254778204</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B140" t="s">
         <v>66</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D140">
         <v>278</v>
@@ -4529,13 +4583,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B141" t="s">
         <v>66</v>
       </c>
       <c r="C141">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D141">
         <v>278</v>
@@ -4543,13 +4597,13 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B142" t="s">
         <v>66</v>
       </c>
       <c r="C142">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D142">
         <v>278</v>
@@ -4557,13 +4611,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B143" t="s">
         <v>66</v>
       </c>
       <c r="C143">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D143">
         <v>278</v>
@@ -4571,13 +4625,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B144" t="s">
         <v>66</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D144">
         <v>278</v>
@@ -4585,13 +4639,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B145" t="s">
         <v>66</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D145">
         <v>278</v>
@@ -4599,13 +4653,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B146" t="s">
         <v>66</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D146">
         <v>278</v>
@@ -4613,13 +4667,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B147" t="s">
         <v>66</v>
       </c>
       <c r="C147">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D147">
         <v>278</v>
@@ -4627,13 +4681,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B148" t="s">
         <v>66</v>
       </c>
       <c r="C148">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D148">
         <v>278</v>
@@ -4641,13 +4695,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B149" t="s">
         <v>66</v>
       </c>
       <c r="C149">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D149">
         <v>278</v>
@@ -4655,13 +4709,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B150" t="s">
         <v>66</v>
       </c>
       <c r="C150">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D150">
         <v>278</v>
@@ -4669,13 +4723,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B151" t="s">
         <v>66</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D151">
         <v>278</v>
@@ -4683,13 +4737,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B152" t="s">
         <v>66</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D152">
         <v>278</v>
@@ -4697,13 +4751,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B153" t="s">
         <v>66</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D153">
         <v>278</v>
@@ -4711,13 +4765,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B154" t="s">
         <v>66</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D154">
         <v>278</v>
@@ -4725,13 +4779,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B155" t="s">
         <v>66</v>
       </c>
       <c r="C155">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D155">
         <v>278</v>
@@ -4739,13 +4793,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B156" t="s">
         <v>66</v>
       </c>
       <c r="C156">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D156">
         <v>278</v>
@@ -4753,13 +4807,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B157" t="s">
         <v>66</v>
       </c>
       <c r="C157">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D157">
         <v>278</v>
@@ -4767,13 +4821,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B158" t="s">
         <v>66</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D158">
         <v>278</v>
@@ -4781,13 +4835,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B159" t="s">
         <v>66</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D159">
         <v>278</v>
@@ -4795,13 +4849,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B160" t="s">
         <v>66</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D160">
         <v>278</v>
@@ -4809,13 +4863,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B161" t="s">
         <v>66</v>
       </c>
       <c r="C161">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D161">
         <v>278</v>
@@ -4823,13 +4877,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B162" t="s">
         <v>66</v>
       </c>
       <c r="C162">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D162">
         <v>278</v>
@@ -4837,13 +4891,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B163" t="s">
         <v>66</v>
       </c>
       <c r="C163">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D163">
         <v>278</v>
@@ -4851,13 +4905,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B164" t="s">
         <v>66</v>
       </c>
       <c r="C164">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D164">
         <v>278</v>
@@ -4865,13 +4919,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B165" t="s">
         <v>66</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165">
         <v>278</v>
@@ -4879,13 +4933,13 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B166" t="s">
         <v>66</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D166">
         <v>278</v>
@@ -4893,13 +4947,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B167" t="s">
         <v>66</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D167">
         <v>278</v>
@@ -4907,13 +4961,13 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" t="s">
+        <v>66</v>
+      </c>
+      <c r="C168">
         <v>5</v>
-      </c>
-      <c r="B168" t="s">
-        <v>66</v>
-      </c>
-      <c r="C168">
-        <v>4</v>
       </c>
       <c r="D168">
         <v>278</v>
@@ -4921,13 +4975,13 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B169" t="s">
         <v>66</v>
       </c>
       <c r="C169">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D169">
         <v>278</v>
@@ -4935,13 +4989,13 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B170" t="s">
         <v>66</v>
       </c>
       <c r="C170">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D170">
         <v>278</v>
@@ -4949,13 +5003,13 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B171" t="s">
         <v>66</v>
       </c>
       <c r="C171">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D171">
         <v>278</v>
@@ -4963,492 +5017,898 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B172" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>754.9931561824767</v>
+        <v>278</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B173" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C173">
         <v>2</v>
       </c>
       <c r="D173">
-        <v>793.4308144037444</v>
+        <v>278</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B174" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C174">
         <v>3</v>
       </c>
       <c r="D174">
-        <v>833.67719768805</v>
+        <v>278</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B175" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C175">
         <v>4</v>
       </c>
       <c r="D175">
-        <v>867.6971201174666</v>
+        <v>278</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B176" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C176">
         <v>5</v>
       </c>
       <c r="D176">
-        <v>896.3820035959822</v>
+        <v>278</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B177" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C177">
         <v>6</v>
       </c>
       <c r="D177">
-        <v>914.3968091726953</v>
+        <v>278</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B178" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C178">
         <v>7</v>
       </c>
       <c r="D178">
-        <v>927.948576810088</v>
+        <v>278</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B179" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D179">
-        <v>754.9931561824767</v>
+        <v>278</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B180" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>793.4308144037444</v>
+        <v>278</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B181" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D181">
-        <v>833.67719768805</v>
+        <v>278</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B182" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D182">
-        <v>867.6971201174666</v>
+        <v>278</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B183" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C183">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D183">
-        <v>896.3820035959822</v>
+        <v>278</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B184" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C184">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D184">
-        <v>914.3968091726953</v>
+        <v>278</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B185" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C185">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D185">
-        <v>927.948576810088</v>
+        <v>278</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B186" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D186">
-        <v>754.9931561824767</v>
+        <v>278</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B187" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D187">
-        <v>793.4308144037444</v>
+        <v>278</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B188" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>833.67719768805</v>
+        <v>278</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B189" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C189">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>867.6971201174666</v>
+        <v>278</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B190" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C190">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D190">
-        <v>896.3820035959822</v>
+        <v>278</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B191" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C191">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D191">
-        <v>914.3968091726953</v>
+        <v>278</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B192" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C192">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D192">
-        <v>927.948576810088</v>
+        <v>278</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B193" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D193">
-        <v>754.9931561824767</v>
+        <v>278</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B194" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D194">
-        <v>793.4308144037444</v>
+        <v>278</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B195" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D195">
-        <v>833.67719768805</v>
+        <v>278</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B196" t="s">
         <v>64</v>
       </c>
       <c r="C196">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>867.6971201174666</v>
+        <v>754.9931561824767</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B197" t="s">
         <v>64</v>
       </c>
       <c r="C197">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D197">
-        <v>896.3820035959822</v>
+        <v>793.4308144037444</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B198" t="s">
         <v>64</v>
       </c>
       <c r="C198">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D198">
-        <v>914.3968091726953</v>
+        <v>833.67719768805</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B199" t="s">
         <v>64</v>
       </c>
       <c r="C199">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D199">
-        <v>927.948576810088</v>
+        <v>867.6971201174666</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B200" t="s">
         <v>64</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D200">
-        <v>754.9931561824767</v>
+        <v>896.3820035959822</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B201" t="s">
         <v>64</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D201">
-        <v>793.4308144037444</v>
+        <v>914.3968091726953</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B202" t="s">
         <v>64</v>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D202">
-        <v>833.67719768805</v>
+        <v>927.948576810088</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B203" t="s">
         <v>64</v>
       </c>
       <c r="C203">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D203">
-        <v>867.6971201174666</v>
+        <v>939.2688254778204</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B204" t="s">
         <v>64</v>
       </c>
       <c r="C204">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>896.3820035959822</v>
+        <v>754.9931561824767</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B205" t="s">
         <v>64</v>
       </c>
       <c r="C205">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>914.3968091726953</v>
+        <v>793.4308144037444</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
+        <v>27</v>
+      </c>
+      <c r="B206" t="s">
+        <v>64</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+      <c r="D206">
+        <v>833.67719768805</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>27</v>
+      </c>
+      <c r="B207" t="s">
+        <v>64</v>
+      </c>
+      <c r="C207">
+        <v>4</v>
+      </c>
+      <c r="D207">
+        <v>867.6971201174666</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>27</v>
+      </c>
+      <c r="B208" t="s">
+        <v>64</v>
+      </c>
+      <c r="C208">
+        <v>5</v>
+      </c>
+      <c r="D208">
+        <v>896.3820035959822</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>27</v>
+      </c>
+      <c r="B209" t="s">
+        <v>64</v>
+      </c>
+      <c r="C209">
+        <v>6</v>
+      </c>
+      <c r="D209">
+        <v>914.3968091726953</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>27</v>
+      </c>
+      <c r="B210" t="s">
+        <v>64</v>
+      </c>
+      <c r="C210">
+        <v>7</v>
+      </c>
+      <c r="D210">
+        <v>927.948576810088</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>27</v>
+      </c>
+      <c r="B211" t="s">
+        <v>64</v>
+      </c>
+      <c r="C211">
+        <v>8</v>
+      </c>
+      <c r="D211">
+        <v>939.2688254778204</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>28</v>
+      </c>
+      <c r="B212" t="s">
+        <v>64</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>754.9931561824767</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>28</v>
+      </c>
+      <c r="B213" t="s">
+        <v>64</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+      <c r="D213">
+        <v>793.4308144037444</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>28</v>
+      </c>
+      <c r="B214" t="s">
+        <v>64</v>
+      </c>
+      <c r="C214">
+        <v>3</v>
+      </c>
+      <c r="D214">
+        <v>833.67719768805</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>28</v>
+      </c>
+      <c r="B215" t="s">
+        <v>64</v>
+      </c>
+      <c r="C215">
+        <v>4</v>
+      </c>
+      <c r="D215">
+        <v>867.6971201174666</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>28</v>
+      </c>
+      <c r="B216" t="s">
+        <v>64</v>
+      </c>
+      <c r="C216">
+        <v>5</v>
+      </c>
+      <c r="D216">
+        <v>896.3820035959822</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>28</v>
+      </c>
+      <c r="B217" t="s">
+        <v>64</v>
+      </c>
+      <c r="C217">
+        <v>6</v>
+      </c>
+      <c r="D217">
+        <v>914.3968091726953</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>28</v>
+      </c>
+      <c r="B218" t="s">
+        <v>64</v>
+      </c>
+      <c r="C218">
+        <v>7</v>
+      </c>
+      <c r="D218">
+        <v>927.948576810088</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>28</v>
+      </c>
+      <c r="B219" t="s">
+        <v>64</v>
+      </c>
+      <c r="C219">
+        <v>8</v>
+      </c>
+      <c r="D219">
+        <v>939.2688254778204</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>31</v>
+      </c>
+      <c r="B220" t="s">
+        <v>64</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>754.9931561824767</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>31</v>
+      </c>
+      <c r="B221" t="s">
+        <v>64</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+      <c r="D221">
+        <v>793.4308144037444</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>31</v>
+      </c>
+      <c r="B222" t="s">
+        <v>64</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+      <c r="D222">
+        <v>833.67719768805</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>31</v>
+      </c>
+      <c r="B223" t="s">
+        <v>64</v>
+      </c>
+      <c r="C223">
+        <v>4</v>
+      </c>
+      <c r="D223">
+        <v>867.6971201174666</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>31</v>
+      </c>
+      <c r="B224" t="s">
+        <v>64</v>
+      </c>
+      <c r="C224">
+        <v>5</v>
+      </c>
+      <c r="D224">
+        <v>896.3820035959822</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>31</v>
+      </c>
+      <c r="B225" t="s">
+        <v>64</v>
+      </c>
+      <c r="C225">
+        <v>6</v>
+      </c>
+      <c r="D225">
+        <v>914.3968091726953</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>31</v>
+      </c>
+      <c r="B226" t="s">
+        <v>64</v>
+      </c>
+      <c r="C226">
+        <v>7</v>
+      </c>
+      <c r="D226">
+        <v>927.948576810088</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>31</v>
+      </c>
+      <c r="B227" t="s">
+        <v>64</v>
+      </c>
+      <c r="C227">
+        <v>8</v>
+      </c>
+      <c r="D227">
+        <v>939.2688254778204</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
         <v>14</v>
       </c>
-      <c r="B206" t="s">
-        <v>64</v>
-      </c>
-      <c r="C206">
-        <v>7</v>
-      </c>
-      <c r="D206">
+      <c r="B228" t="s">
+        <v>64</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>754.9931561824767</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>14</v>
+      </c>
+      <c r="B229" t="s">
+        <v>64</v>
+      </c>
+      <c r="C229">
+        <v>2</v>
+      </c>
+      <c r="D229">
+        <v>793.4308144037444</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>14</v>
+      </c>
+      <c r="B230" t="s">
+        <v>64</v>
+      </c>
+      <c r="C230">
+        <v>3</v>
+      </c>
+      <c r="D230">
+        <v>833.67719768805</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>14</v>
+      </c>
+      <c r="B231" t="s">
+        <v>64</v>
+      </c>
+      <c r="C231">
+        <v>4</v>
+      </c>
+      <c r="D231">
+        <v>867.6971201174666</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>14</v>
+      </c>
+      <c r="B232" t="s">
+        <v>64</v>
+      </c>
+      <c r="C232">
+        <v>5</v>
+      </c>
+      <c r="D232">
+        <v>896.3820035959822</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>14</v>
+      </c>
+      <c r="B233" t="s">
+        <v>64</v>
+      </c>
+      <c r="C233">
+        <v>6</v>
+      </c>
+      <c r="D233">
+        <v>914.3968091726953</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>14</v>
+      </c>
+      <c r="B234" t="s">
+        <v>64</v>
+      </c>
+      <c r="C234">
+        <v>7</v>
+      </c>
+      <c r="D234">
         <v>927.948576810088</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>14</v>
+      </c>
+      <c r="B235" t="s">
+        <v>64</v>
+      </c>
+      <c r="C235">
+        <v>8</v>
+      </c>
+      <c r="D235">
+        <v>939.2688254778204</v>
       </c>
     </row>
   </sheetData>
@@ -5458,23 +5918,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:S235"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5487,8 +5947,11 @@
       <c r="D3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="I3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -5501,8 +5964,17 @@
       <c r="D4">
         <v>2550</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5515,8 +5987,20 @@
       <c r="D5">
         <v>2550</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>1802000</v>
+      </c>
+      <c r="K5">
+        <v>2650000</v>
+      </c>
+      <c r="P5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -5529,8 +6013,26 @@
       <c r="D6">
         <v>2550</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>408000.0000000001</v>
+      </c>
+      <c r="K6">
+        <v>600000</v>
+      </c>
+      <c r="P6">
+        <v>0.68</v>
+      </c>
+      <c r="R6">
+        <v>35.3147</v>
+      </c>
+      <c r="S6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -5543,8 +6045,17 @@
       <c r="D7">
         <v>2550</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>3821600</v>
+      </c>
+      <c r="K7">
+        <v>5620000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -5557,8 +6068,17 @@
       <c r="D8">
         <v>2550</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>2763520</v>
+      </c>
+      <c r="K8">
+        <v>4064000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -5571,8 +6091,17 @@
       <c r="D9">
         <v>2550</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>2133160</v>
+      </c>
+      <c r="K9">
+        <v>3137000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -5585,22 +6114,40 @@
       <c r="D10">
         <v>2550</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10">
+        <v>312800</v>
+      </c>
+      <c r="K10">
+        <v>460000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>4094.166666666667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>2550</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>1428000</v>
+      </c>
+      <c r="K11">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -5608,13 +6155,22 @@
         <v>63</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>4094.166666666667</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12">
+        <v>1043120</v>
+      </c>
+      <c r="K12">
+        <v>1534000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -5622,13 +6178,22 @@
         <v>63</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>4094.166666666667</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>918000.0000000001</v>
+      </c>
+      <c r="K13">
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -5636,13 +6201,22 @@
         <v>63</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>4094.166666666667</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>5210704</v>
+      </c>
+      <c r="K14">
+        <v>7662800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -5650,13 +6224,22 @@
         <v>63</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>4094.166666666667</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15">
+        <v>4236400</v>
+      </c>
+      <c r="K15">
+        <v>6230000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -5664,13 +6247,22 @@
         <v>63</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>4094.166666666667</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>2791726.027397261</v>
+      </c>
+      <c r="K16">
+        <v>4105479.452054794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -5678,41 +6270,68 @@
         <v>63</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>4094.166666666667</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17">
+        <v>504566.2100456621</v>
+      </c>
+      <c r="K17">
+        <v>742009.1324200913</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>63</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>4094.166666666667</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18">
+        <v>388127.8538812785</v>
+      </c>
+      <c r="K18">
+        <v>570776.2557077626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>63</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>4094.166666666667</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19">
+        <v>807305.9360730594</v>
+      </c>
+      <c r="K19">
+        <v>1187214.611872146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -5720,13 +6339,22 @@
         <v>63</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>2380</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>476000.0000000001</v>
+      </c>
+      <c r="K20">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -5734,13 +6362,13 @@
         <v>63</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>2380</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -5748,13 +6376,13 @@
         <v>63</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>2380</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -5762,13 +6390,13 @@
         <v>63</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>2380</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -5776,55 +6404,97 @@
         <v>63</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>2380</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="I24" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>63</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>2417.92023870743</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>2380</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>2417.92023870743</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>2380</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <v>1921913.314862584</v>
+      </c>
+      <c r="K26">
+        <v>24.75876564440623</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>63</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>2417.92023870743</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>2380</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27">
+        <v>6817601.056114219</v>
+      </c>
+      <c r="K27">
+        <v>87.82674301700081</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -5832,13 +6502,16 @@
         <v>63</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>2417.92023870743</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -5846,13 +6519,13 @@
         <v>63</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>2417.92023870743</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5860,13 +6533,16 @@
         <v>63</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <v>2417.92023870743</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="I30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -5874,69 +6550,105 @@
         <v>63</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>2417.92023870743</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="I31" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" t="s">
+        <v>82</v>
+      </c>
+      <c r="K31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>4236.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>2417.92023870743</v>
+      </c>
+      <c r="I32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32">
+        <v>90</v>
+      </c>
+      <c r="K32">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>4236.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>2417.92023870743</v>
+      </c>
+      <c r="I33" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33">
+        <v>144.5</v>
+      </c>
+      <c r="K33">
+        <v>4094.166666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>4236.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>2417.92023870743</v>
+      </c>
+      <c r="I34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J34">
+        <v>84</v>
+      </c>
+      <c r="K34">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>4236.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>2417.92023870743</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -5944,13 +6656,13 @@
         <v>64</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>4236.4</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -5958,13 +6670,13 @@
         <v>64</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>4236.4</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -5972,83 +6684,83 @@
         <v>64</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <v>4236.4</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>5210.704</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>4236.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
         <v>64</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>5210.704</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>4236.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
         <v>64</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>5210.704</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>4236.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
         <v>64</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D42">
-        <v>5210.704</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>4236.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
         <v>64</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>5210.704</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>4236.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -6056,13 +6768,13 @@
         <v>64</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>5210.704</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -6070,52 +6782,52 @@
         <v>64</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>5210.704</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>1921.913314862584</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>5210.704</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>1921.913314862584</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>5210.704</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>1921.913314862584</v>
+        <v>5210.704</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6123,13 +6835,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>1921.913314862584</v>
+        <v>5210.704</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -6137,13 +6849,13 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D50">
-        <v>1921.913314862584</v>
+        <v>5210.704</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -6151,13 +6863,13 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>1921.913314862584</v>
+        <v>5210.704</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -6168,7 +6880,7 @@
         <v>65</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>1921.913314862584</v>
@@ -6176,100 +6888,100 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>2133.16</v>
+        <v>1921.913314862584</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>2133.16</v>
+        <v>1921.913314862584</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55">
-        <v>2133.16</v>
+        <v>1921.913314862584</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56">
-        <v>2133.16</v>
+        <v>1921.913314862584</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>2133.16</v>
+        <v>1921.913314862584</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58">
-        <v>2133.16</v>
+        <v>1921.913314862584</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59">
-        <v>2133.16</v>
+        <v>1921.913314862584</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -6277,13 +6989,13 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>6817.601056114219</v>
+        <v>2133.16</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -6291,13 +7003,13 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61">
-        <v>6817.601056114219</v>
+        <v>2133.16</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -6305,13 +7017,13 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>3</v>
       </c>
       <c r="D62">
-        <v>6817.601056114219</v>
+        <v>2133.16</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6319,13 +7031,13 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63">
         <v>4</v>
       </c>
       <c r="D63">
-        <v>6817.601056114219</v>
+        <v>2133.16</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -6333,13 +7045,13 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64">
         <v>5</v>
       </c>
       <c r="D64">
-        <v>6817.601056114219</v>
+        <v>2133.16</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -6347,13 +7059,13 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65">
         <v>6</v>
       </c>
       <c r="D65">
-        <v>6817.601056114219</v>
+        <v>2133.16</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -6361,704 +7073,704 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66">
         <v>7</v>
       </c>
       <c r="D66">
-        <v>6817.601056114219</v>
+        <v>2133.16</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
         <v>64</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D67">
-        <v>1802</v>
+        <v>2133.16</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>1802</v>
+        <v>6817.601056114219</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>1802</v>
+        <v>6817.601056114219</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70">
-        <v>1802</v>
+        <v>6817.601056114219</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71">
         <v>4</v>
       </c>
-      <c r="B71" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71">
-        <v>5</v>
-      </c>
       <c r="D71">
-        <v>1802</v>
+        <v>6817.601056114219</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>1802</v>
+        <v>6817.601056114219</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D73">
-        <v>1802</v>
+        <v>6817.601056114219</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D74">
-        <v>408.0000000000001</v>
+        <v>6817.601056114219</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D75">
-        <v>408.0000000000001</v>
+        <v>6817.601056114219</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
         <v>64</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>408.0000000000001</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
         <v>64</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>408.0000000000001</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
         <v>64</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78">
-        <v>408.0000000000001</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
         <v>64</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D79">
-        <v>408.0000000000001</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B80" t="s">
         <v>64</v>
       </c>
       <c r="C80">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D80">
-        <v>408.0000000000001</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
         <v>64</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D81">
-        <v>3821.6</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B82" t="s">
         <v>64</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D82">
-        <v>3821.6</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B83" t="s">
         <v>64</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D83">
-        <v>3821.6</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
         <v>64</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>3821.6</v>
+        <v>408.0000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
         <v>64</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>3821.6</v>
+        <v>408.0000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
         <v>64</v>
       </c>
       <c r="C86">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D86">
-        <v>3821.6</v>
+        <v>408.0000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
         <v>64</v>
       </c>
       <c r="C87">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D87">
-        <v>3821.6</v>
+        <v>408.0000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
         <v>64</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D88">
-        <v>2763.52</v>
+        <v>408.0000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
         <v>64</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D89">
-        <v>2763.52</v>
+        <v>408.0000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
         <v>64</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D90">
-        <v>2763.52</v>
+        <v>408.0000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
         <v>64</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D91">
-        <v>2763.52</v>
+        <v>408.0000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
         <v>64</v>
       </c>
       <c r="C92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>2763.52</v>
+        <v>3821.6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
         <v>64</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>2763.52</v>
+        <v>3821.6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
         <v>64</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>2763.52</v>
+        <v>3821.6</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
         <v>64</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>312.8</v>
+        <v>3821.6</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
         <v>64</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96">
-        <v>312.8</v>
+        <v>3821.6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
         <v>64</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D97">
-        <v>312.8</v>
+        <v>3821.6</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
         <v>64</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D98">
-        <v>312.8</v>
+        <v>3821.6</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
         <v>64</v>
       </c>
       <c r="C99">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D99">
-        <v>312.8</v>
+        <v>3821.6</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B100" t="s">
         <v>64</v>
       </c>
       <c r="C100">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>312.8</v>
+        <v>2763.52</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B101" t="s">
         <v>64</v>
       </c>
       <c r="C101">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>312.8</v>
+        <v>2763.52</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B102" t="s">
         <v>64</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D102">
-        <v>1428</v>
+        <v>2763.52</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B103" t="s">
         <v>64</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D103">
-        <v>1428</v>
+        <v>2763.52</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B104" t="s">
         <v>64</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D104">
-        <v>1428</v>
+        <v>2763.52</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B105" t="s">
         <v>64</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D105">
-        <v>1428</v>
+        <v>2763.52</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B106" t="s">
         <v>64</v>
       </c>
       <c r="C106">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D106">
-        <v>1428</v>
+        <v>2763.52</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B107" t="s">
         <v>64</v>
       </c>
       <c r="C107">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D107">
-        <v>1428</v>
+        <v>2763.52</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B108" t="s">
         <v>64</v>
       </c>
       <c r="C108">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>1428</v>
+        <v>312.8</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B109" t="s">
         <v>64</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>1043.12</v>
+        <v>312.8</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B110" t="s">
         <v>64</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D110">
-        <v>1043.12</v>
+        <v>312.8</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B111" t="s">
         <v>64</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D111">
-        <v>1043.12</v>
+        <v>312.8</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B112" t="s">
         <v>64</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D112">
-        <v>1043.12</v>
+        <v>312.8</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B113" t="s">
         <v>64</v>
       </c>
       <c r="C113">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D113">
-        <v>1043.12</v>
+        <v>312.8</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B114" t="s">
         <v>64</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D114">
-        <v>1043.12</v>
+        <v>312.8</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B115" t="s">
         <v>64</v>
       </c>
       <c r="C115">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D115">
-        <v>1043.12</v>
+        <v>312.8</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B116" t="s">
         <v>64</v>
@@ -7067,12 +7779,12 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>918.0000000000001</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B117" t="s">
         <v>64</v>
@@ -7081,12 +7793,12 @@
         <v>2</v>
       </c>
       <c r="D117">
-        <v>918.0000000000001</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B118" t="s">
         <v>64</v>
@@ -7095,12 +7807,12 @@
         <v>3</v>
       </c>
       <c r="D118">
-        <v>918.0000000000001</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B119" t="s">
         <v>64</v>
@@ -7109,12 +7821,12 @@
         <v>4</v>
       </c>
       <c r="D119">
-        <v>918.0000000000001</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B120" t="s">
         <v>64</v>
@@ -7123,12 +7835,12 @@
         <v>5</v>
       </c>
       <c r="D120">
-        <v>918.0000000000001</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B121" t="s">
         <v>64</v>
@@ -7137,12 +7849,12 @@
         <v>6</v>
       </c>
       <c r="D121">
-        <v>918.0000000000001</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B122" t="s">
         <v>64</v>
@@ -7151,1186 +7863,1598 @@
         <v>7</v>
       </c>
       <c r="D122">
-        <v>918.0000000000001</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B124" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>1043.12</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B125" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>1043.12</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>1043.12</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B127" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C127">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>1043.12</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B128" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C128">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>1043.12</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B129" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C129">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>1043.12</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B130" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>1043.12</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B131" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1043.12</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>918.0000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>918.0000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C134">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>918.0000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C135">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>918.0000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C136">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>918.0000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>918.0000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>918.0000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>918.0000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B140" t="s">
         <v>66</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>4269.406392694064</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B141" t="s">
         <v>66</v>
       </c>
       <c r="C141">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>4269.406392694064</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B142" t="s">
         <v>66</v>
       </c>
       <c r="C142">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>4269.406392694064</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B143" t="s">
         <v>66</v>
       </c>
       <c r="C143">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>4269.406392694064</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B144" t="s">
         <v>66</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>4269.406392694064</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B145" t="s">
         <v>66</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>4269.406392694064</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B146" t="s">
         <v>66</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>4269.406392694064</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B147" t="s">
         <v>66</v>
       </c>
       <c r="C147">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>4269.406392694064</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B148" t="s">
         <v>66</v>
       </c>
       <c r="C148">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>808.7426900584777</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B149" t="s">
         <v>66</v>
       </c>
       <c r="C149">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>808.7426900584777</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B150" t="s">
         <v>66</v>
       </c>
       <c r="C150">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>808.7426900584777</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B151" t="s">
         <v>66</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>808.7426900584777</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B152" t="s">
         <v>66</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>808.7426900584777</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B153" t="s">
         <v>66</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>808.7426900584777</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B154" t="s">
         <v>66</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>808.7426900584777</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B155" t="s">
         <v>66</v>
       </c>
       <c r="C155">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>808.7426900584777</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B156" t="s">
         <v>66</v>
       </c>
       <c r="C156">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>1624.936073059361</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B157" t="s">
         <v>66</v>
       </c>
       <c r="C157">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>1624.936073059361</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B158" t="s">
         <v>66</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>1624.936073059361</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B159" t="s">
         <v>66</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>1624.936073059361</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B160" t="s">
         <v>66</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>1624.936073059361</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B161" t="s">
         <v>66</v>
       </c>
       <c r="C161">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>1624.936073059361</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B162" t="s">
         <v>66</v>
       </c>
       <c r="C162">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>1624.936073059361</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B163" t="s">
         <v>66</v>
       </c>
       <c r="C163">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>1624.936073059361</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B164" t="s">
         <v>66</v>
       </c>
       <c r="C164">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>3351.251141552512</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B165" t="s">
         <v>66</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>3351.251141552512</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B166" t="s">
         <v>66</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>3351.251141552512</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B167" t="s">
         <v>66</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>3351.251141552512</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" t="s">
+        <v>66</v>
+      </c>
+      <c r="C168">
         <v>5</v>
       </c>
-      <c r="B168" t="s">
-        <v>66</v>
-      </c>
-      <c r="C168">
-        <v>4</v>
-      </c>
       <c r="D168">
-        <v>0</v>
+        <v>3351.251141552512</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B169" t="s">
         <v>66</v>
       </c>
       <c r="C169">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>3351.251141552512</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B170" t="s">
         <v>66</v>
       </c>
       <c r="C170">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>3351.251141552512</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B171" t="s">
         <v>66</v>
       </c>
       <c r="C171">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>3351.251141552512</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B172" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>2791.726027397261</v>
+        <v>2581.127853881278</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B173" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C173">
         <v>2</v>
       </c>
       <c r="D173">
-        <v>2791.726027397261</v>
+        <v>2581.127853881278</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B174" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C174">
         <v>3</v>
       </c>
       <c r="D174">
-        <v>2791.726027397261</v>
+        <v>2581.127853881278</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B175" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C175">
         <v>4</v>
       </c>
       <c r="D175">
-        <v>2791.726027397261</v>
+        <v>2581.127853881278</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B176" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C176">
         <v>5</v>
       </c>
       <c r="D176">
-        <v>2791.726027397261</v>
+        <v>2581.127853881278</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B177" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C177">
         <v>6</v>
       </c>
       <c r="D177">
-        <v>2791.726027397261</v>
+        <v>2581.127853881278</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B178" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C178">
         <v>7</v>
       </c>
       <c r="D178">
-        <v>2791.726027397261</v>
+        <v>2581.127853881278</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B179" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D179">
-        <v>504.5662100456621</v>
+        <v>6193.433789954339</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B180" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>504.5662100456621</v>
+        <v>2581.127853881278</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B181" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D181">
-        <v>504.5662100456621</v>
+        <v>2581.127853881278</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B182" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D182">
-        <v>504.5662100456621</v>
+        <v>2581.127853881278</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B183" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C183">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D183">
-        <v>504.5662100456621</v>
+        <v>2581.127853881278</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B184" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C184">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D184">
-        <v>504.5662100456621</v>
+        <v>2581.127853881278</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B185" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C185">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D185">
-        <v>504.5662100456621</v>
+        <v>2581.127853881278</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B186" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D186">
-        <v>388.1278538812786</v>
+        <v>2581.127853881278</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B187" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D187">
-        <v>388.1278538812786</v>
+        <v>2581.127853881278</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B188" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>388.1278538812786</v>
+        <v>262.607305936073</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B189" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C189">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>388.1278538812786</v>
+        <v>262.607305936073</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B190" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C190">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D190">
-        <v>388.1278538812786</v>
+        <v>262.607305936073</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B191" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C191">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D191">
-        <v>388.1278538812786</v>
+        <v>262.607305936073</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B192" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C192">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D192">
-        <v>388.1278538812786</v>
+        <v>262.607305936073</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B193" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D193">
-        <v>807.3059360730595</v>
+        <v>262.607305936073</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B194" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D194">
-        <v>807.3059360730595</v>
+        <v>262.607305936073</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B195" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D195">
-        <v>807.3059360730595</v>
+        <v>262.607305936073</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B196" t="s">
         <v>64</v>
       </c>
       <c r="C196">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>807.3059360730595</v>
+        <v>2791.726027397261</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B197" t="s">
         <v>64</v>
       </c>
       <c r="C197">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D197">
-        <v>807.3059360730595</v>
+        <v>2791.726027397261</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B198" t="s">
         <v>64</v>
       </c>
       <c r="C198">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D198">
-        <v>807.3059360730595</v>
+        <v>2791.726027397261</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B199" t="s">
         <v>64</v>
       </c>
       <c r="C199">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D199">
-        <v>807.3059360730595</v>
+        <v>2791.726027397261</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B200" t="s">
         <v>64</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D200">
-        <v>476.0000000000001</v>
+        <v>2791.726027397261</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B201" t="s">
         <v>64</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D201">
-        <v>476.0000000000001</v>
+        <v>2791.726027397261</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B202" t="s">
         <v>64</v>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D202">
-        <v>476.0000000000001</v>
+        <v>2791.726027397261</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B203" t="s">
         <v>64</v>
       </c>
       <c r="C203">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D203">
-        <v>476.0000000000001</v>
+        <v>2791.726027397261</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B204" t="s">
         <v>64</v>
       </c>
       <c r="C204">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>476.0000000000001</v>
+        <v>504.5662100456621</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B205" t="s">
         <v>64</v>
       </c>
       <c r="C205">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>476.0000000000001</v>
+        <v>504.5662100456621</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
+        <v>27</v>
+      </c>
+      <c r="B206" t="s">
+        <v>64</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+      <c r="D206">
+        <v>504.5662100456621</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>27</v>
+      </c>
+      <c r="B207" t="s">
+        <v>64</v>
+      </c>
+      <c r="C207">
+        <v>4</v>
+      </c>
+      <c r="D207">
+        <v>504.5662100456621</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>27</v>
+      </c>
+      <c r="B208" t="s">
+        <v>64</v>
+      </c>
+      <c r="C208">
+        <v>5</v>
+      </c>
+      <c r="D208">
+        <v>504.5662100456621</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>27</v>
+      </c>
+      <c r="B209" t="s">
+        <v>64</v>
+      </c>
+      <c r="C209">
+        <v>6</v>
+      </c>
+      <c r="D209">
+        <v>504.5662100456621</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>27</v>
+      </c>
+      <c r="B210" t="s">
+        <v>64</v>
+      </c>
+      <c r="C210">
+        <v>7</v>
+      </c>
+      <c r="D210">
+        <v>504.5662100456621</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>27</v>
+      </c>
+      <c r="B211" t="s">
+        <v>64</v>
+      </c>
+      <c r="C211">
+        <v>8</v>
+      </c>
+      <c r="D211">
+        <v>504.5662100456621</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>28</v>
+      </c>
+      <c r="B212" t="s">
+        <v>64</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>388.1278538812786</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>28</v>
+      </c>
+      <c r="B213" t="s">
+        <v>64</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+      <c r="D213">
+        <v>388.1278538812786</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>28</v>
+      </c>
+      <c r="B214" t="s">
+        <v>64</v>
+      </c>
+      <c r="C214">
+        <v>3</v>
+      </c>
+      <c r="D214">
+        <v>388.1278538812786</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>28</v>
+      </c>
+      <c r="B215" t="s">
+        <v>64</v>
+      </c>
+      <c r="C215">
+        <v>4</v>
+      </c>
+      <c r="D215">
+        <v>388.1278538812786</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>28</v>
+      </c>
+      <c r="B216" t="s">
+        <v>64</v>
+      </c>
+      <c r="C216">
+        <v>5</v>
+      </c>
+      <c r="D216">
+        <v>388.1278538812786</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>28</v>
+      </c>
+      <c r="B217" t="s">
+        <v>64</v>
+      </c>
+      <c r="C217">
+        <v>6</v>
+      </c>
+      <c r="D217">
+        <v>388.1278538812786</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>28</v>
+      </c>
+      <c r="B218" t="s">
+        <v>64</v>
+      </c>
+      <c r="C218">
+        <v>7</v>
+      </c>
+      <c r="D218">
+        <v>388.1278538812786</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>28</v>
+      </c>
+      <c r="B219" t="s">
+        <v>64</v>
+      </c>
+      <c r="C219">
+        <v>8</v>
+      </c>
+      <c r="D219">
+        <v>388.1278538812786</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>31</v>
+      </c>
+      <c r="B220" t="s">
+        <v>64</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>807.3059360730595</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>31</v>
+      </c>
+      <c r="B221" t="s">
+        <v>64</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+      <c r="D221">
+        <v>807.3059360730595</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>31</v>
+      </c>
+      <c r="B222" t="s">
+        <v>64</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+      <c r="D222">
+        <v>807.3059360730595</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>31</v>
+      </c>
+      <c r="B223" t="s">
+        <v>64</v>
+      </c>
+      <c r="C223">
+        <v>4</v>
+      </c>
+      <c r="D223">
+        <v>807.3059360730595</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>31</v>
+      </c>
+      <c r="B224" t="s">
+        <v>64</v>
+      </c>
+      <c r="C224">
+        <v>5</v>
+      </c>
+      <c r="D224">
+        <v>807.3059360730595</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>31</v>
+      </c>
+      <c r="B225" t="s">
+        <v>64</v>
+      </c>
+      <c r="C225">
+        <v>6</v>
+      </c>
+      <c r="D225">
+        <v>807.3059360730595</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>31</v>
+      </c>
+      <c r="B226" t="s">
+        <v>64</v>
+      </c>
+      <c r="C226">
+        <v>7</v>
+      </c>
+      <c r="D226">
+        <v>807.3059360730595</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>31</v>
+      </c>
+      <c r="B227" t="s">
+        <v>64</v>
+      </c>
+      <c r="C227">
+        <v>8</v>
+      </c>
+      <c r="D227">
+        <v>807.3059360730595</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
         <v>14</v>
       </c>
-      <c r="B206" t="s">
-        <v>64</v>
-      </c>
-      <c r="C206">
-        <v>7</v>
-      </c>
-      <c r="D206">
+      <c r="B228" t="s">
+        <v>64</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
         <v>476.0000000000001</v>
       </c>
     </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>14</v>
+      </c>
+      <c r="B229" t="s">
+        <v>64</v>
+      </c>
+      <c r="C229">
+        <v>2</v>
+      </c>
+      <c r="D229">
+        <v>476.0000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>14</v>
+      </c>
+      <c r="B230" t="s">
+        <v>64</v>
+      </c>
+      <c r="C230">
+        <v>3</v>
+      </c>
+      <c r="D230">
+        <v>476.0000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>14</v>
+      </c>
+      <c r="B231" t="s">
+        <v>64</v>
+      </c>
+      <c r="C231">
+        <v>4</v>
+      </c>
+      <c r="D231">
+        <v>476.0000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>14</v>
+      </c>
+      <c r="B232" t="s">
+        <v>64</v>
+      </c>
+      <c r="C232">
+        <v>5</v>
+      </c>
+      <c r="D232">
+        <v>476.0000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>14</v>
+      </c>
+      <c r="B233" t="s">
+        <v>64</v>
+      </c>
+      <c r="C233">
+        <v>6</v>
+      </c>
+      <c r="D233">
+        <v>476.0000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>14</v>
+      </c>
+      <c r="B234" t="s">
+        <v>64</v>
+      </c>
+      <c r="C234">
+        <v>7</v>
+      </c>
+      <c r="D234">
+        <v>476.0000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>14</v>
+      </c>
+      <c r="B235" t="s">
+        <v>64</v>
+      </c>
+      <c r="C235">
+        <v>8</v>
+      </c>
+      <c r="D235">
+        <v>476.0000000000001</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L25" r:id="rId1"/>
+    <hyperlink ref="L26" r:id="rId2"/>
+    <hyperlink ref="L27" r:id="rId3"/>
+    <hyperlink ref="E28" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8345,15 +9469,15 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="M1" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -8364,7 +9488,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -8378,19 +9502,19 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
         <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -8481,7 +9605,7 @@
         <v>2181585300.486274</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="I9">
         <v>50.5</v>
@@ -8495,7 +9619,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="H10" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I10">
         <v>80.5</v>
@@ -8509,15 +9633,15 @@
     </row>
     <row r="13" spans="1:15">
       <c r="H13" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="H15" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -8548,8 +9672,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="14" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="4cd9b23512e5ed5f06fd653b087fad24">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0fd60b66c697f161fb7f5dd5e750562" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="13" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="d479b00409af6e981aacf0e296b2ead4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61f3bd59c311ef453d9cb08d9ad24a36" ns2:_="" ns3:_="">
     <xsd:import namespace="1603ae16-0075-49fc-8eb8-355ddc15d60c"/>
     <xsd:import namespace="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1"/>
     <xsd:element name="properties">
@@ -8569,7 +9693,6 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -8622,11 +9745,6 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -8791,13 +9909,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D834836-8C83-4D3F-BC40-E59E432BA5EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A4A30F9-6917-46A6-8C55-D97F412BFC12}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA955871-E632-4E45-9C54-72C9D814D13F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31CEDD1D-E1AE-468B-814D-02D648CE83F1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6DF099E-BC54-40C8-9B72-C5FC0132D5C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F979F0CF-9450-4A96-ACEE-671EC8963720}"/>
 </file>
--- a/Data handler/full_model/NaturalGas.xlsx
+++ b/Data handler/full_model/NaturalGas.xlsx
@@ -9672,8 +9672,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="13" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="d479b00409af6e981aacf0e296b2ead4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61f3bd59c311ef453d9cb08d9ad24a36" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005D7E641A7C6DC643BD6AA67ED4899C86" ma:contentTypeVersion="14" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="4cd9b23512e5ed5f06fd653b087fad24">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1603ae16-0075-49fc-8eb8-355ddc15d60c" xmlns:ns3="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0fd60b66c697f161fb7f5dd5e750562" ns2:_="" ns3:_="">
     <xsd:import namespace="1603ae16-0075-49fc-8eb8-355ddc15d60c"/>
     <xsd:import namespace="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1"/>
     <xsd:element name="properties">
@@ -9693,6 +9693,7 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -9745,6 +9746,11 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -9897,25 +9903,10 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1603ae16-0075-49fc-8eb8-355ddc15d60c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5ad9d0b0-d7b7-41ff-b881-929c6caa05f1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A4A30F9-6917-46A6-8C55-D97F412BFC12}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8D86B6C-9053-464D-A598-CE9186D3AFC5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31CEDD1D-E1AE-468B-814D-02D648CE83F1}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F979F0CF-9450-4A96-ACEE-671EC8963720}"/>
 </file>